--- a/Data/EC/NIT-9006458997.xlsx
+++ b/Data/EC/NIT-9006458997.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB9F4B49-8340-4AFA-B57C-E72A69F14D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE5FEC9D-85E5-4E0B-80EA-E052A7B4BCB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C32775C4-3D81-4D36-BD48-8B0D5D491325}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BAD79EA3-5F55-4E52-BACC-A7E31B8483EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="31">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,43 +65,37 @@
     <t>CC</t>
   </si>
   <si>
-    <t>73151784</t>
-  </si>
-  <si>
-    <t>DAGOBERTO BALLESTERO ZAMBRANO</t>
+    <t>73126854</t>
+  </si>
+  <si>
+    <t>RICARDO BALLESTERO ZAMBRANO</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>1047407187</t>
+  </si>
+  <si>
+    <t>RONALD ENRIQUE BALLESTEROS MEJIA</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
   </si>
   <si>
     <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>73126854</t>
-  </si>
-  <si>
-    <t>RICARDO BALLESTERO ZAMBRANO</t>
-  </si>
-  <si>
-    <t>1047407187</t>
-  </si>
-  <si>
-    <t>RONALD ENRIQUE BALLESTEROS MEJIA</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -200,7 +194,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -213,9 +209,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -415,23 +409,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -459,10 +453,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -515,7 +509,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33869292-5EFF-64DF-B469-C0110BB74864}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18CFBCAA-A6C0-E65E-BF9E-64FC2140EDF2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -866,8 +860,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD800C9-D589-4587-B421-13305DB3F2D0}">
-  <dimension ref="B2:J42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453CED7F-BB11-44A0-AD87-FAEB2B4781D1}">
+  <dimension ref="B2:J35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -891,7 +885,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -936,7 +930,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -968,12 +962,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>695568</v>
+        <v>462483</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -984,14 +978,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F13" s="5">
         <v>7</v>
@@ -1021,13 +1015,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I15" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>27</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1044,10 +1038,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>18726</v>
+        <v>36341</v>
       </c>
       <c r="G16" s="18">
-        <v>908526</v>
+        <v>877803</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1058,19 +1052,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>35112</v>
       </c>
       <c r="G17" s="18">
-        <v>908526</v>
+        <v>877803</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1087,13 +1081,13 @@
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
-        <v>35112</v>
+        <v>36341</v>
       </c>
       <c r="G18" s="18">
-        <v>908526</v>
+        <v>877803</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1104,10 +1098,10 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>14</v>
@@ -1116,7 +1110,7 @@
         <v>35112</v>
       </c>
       <c r="G19" s="18">
-        <v>908526</v>
+        <v>877803</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1139,7 +1133,7 @@
         <v>36341</v>
       </c>
       <c r="G20" s="18">
-        <v>908526</v>
+        <v>877803</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1150,19 +1144,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F21" s="18">
-        <v>36341</v>
+        <v>35112</v>
       </c>
       <c r="G21" s="18">
-        <v>908526</v>
+        <v>877803</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1179,13 +1173,13 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="18">
-        <v>36341</v>
+        <v>35112</v>
       </c>
       <c r="G22" s="18">
-        <v>908526</v>
+        <v>877803</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1196,19 +1190,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F23" s="18">
-        <v>18726</v>
+        <v>35112</v>
       </c>
       <c r="G23" s="18">
-        <v>908526</v>
+        <v>877803</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1219,19 +1213,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F24" s="18">
         <v>35112</v>
       </c>
       <c r="G24" s="18">
-        <v>908526</v>
+        <v>877803</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1242,19 +1236,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F25" s="18">
         <v>35112</v>
       </c>
       <c r="G25" s="18">
-        <v>908526</v>
+        <v>877803</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1265,19 +1259,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>18</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="F26" s="18">
         <v>35112</v>
       </c>
       <c r="G26" s="18">
-        <v>908526</v>
+        <v>877803</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1288,19 +1282,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F27" s="18">
-        <v>36341</v>
+        <v>35112</v>
       </c>
       <c r="G27" s="18">
-        <v>908526</v>
+        <v>877803</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1311,236 +1305,75 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F28" s="18">
-        <v>36341</v>
+        <v>18726</v>
       </c>
       <c r="G28" s="18">
-        <v>908526</v>
+        <v>877803</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" s="17" t="s">
+      <c r="C29" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G29" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B30" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="18">
+      <c r="F29" s="24">
         <v>18726</v>
       </c>
-      <c r="G30" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B31" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G31" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B32" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G32" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B33" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G33" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
+      <c r="G29" s="24">
+        <v>877803</v>
+      </c>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="26"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B34" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F34" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G34" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
+      <c r="B34" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="32"/>
+      <c r="H34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B35" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F35" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G35" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B36" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D36" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E36" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="F36" s="24">
-        <v>35112</v>
-      </c>
-      <c r="G36" s="24">
-        <v>908526</v>
-      </c>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="26"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B41" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="C41" s="32"/>
-      <c r="H41" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B42" s="32" t="s">
+      <c r="B35" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="32"/>
+      <c r="H35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="32"/>
-      <c r="H42" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H34:J34"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9006458997.xlsx
+++ b/Data/EC/NIT-9006458997.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE5FEC9D-85E5-4E0B-80EA-E052A7B4BCB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{17DB5069-0826-4D15-9AFF-3A1F63B1D77E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BAD79EA3-5F55-4E52-BACC-A7E31B8483EE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E1C9B017-9DF7-49CB-8737-2CAB7122EF25}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -194,9 +194,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -209,7 +207,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -403,29 +403,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -444,19 +444,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -509,7 +515,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18CFBCAA-A6C0-E65E-BF9E-64FC2140EDF2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EC918ED-53D7-AAA4-1505-873FE61A2074}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -860,7 +866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453CED7F-BB11-44A0-AD87-FAEB2B4781D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DC21A29-C0BC-4DBD-8454-D1DF70307126}">
   <dimension ref="B2:J35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -883,49 +889,49 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
@@ -933,7 +939,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -949,7 +955,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9006458997</v>
       </c>
@@ -965,7 +971,7 @@
         <v>22</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
         <v>462483</v>
       </c>
@@ -1034,18 +1040,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>36341</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="19">
         <v>877803</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1057,18 +1063,18 @@
       <c r="D17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>35112</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="19">
         <v>877803</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1080,18 +1086,18 @@
       <c r="D18" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>36341</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="19">
         <v>877803</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1103,18 +1109,18 @@
       <c r="D19" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>35112</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="19">
         <v>877803</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1126,18 +1132,18 @@
       <c r="D20" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>36341</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="19">
         <v>877803</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1149,18 +1155,18 @@
       <c r="D21" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="19">
         <v>35112</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="19">
         <v>877803</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
@@ -1172,18 +1178,18 @@
       <c r="D22" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="19">
         <v>35112</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="19">
         <v>877803</v>
       </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
@@ -1195,18 +1201,18 @@
       <c r="D23" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="19">
         <v>35112</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="19">
         <v>877803</v>
       </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
@@ -1218,18 +1224,18 @@
       <c r="D24" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="19">
         <v>35112</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="19">
         <v>877803</v>
       </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
@@ -1241,18 +1247,18 @@
       <c r="D25" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="19">
         <v>35112</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="19">
         <v>877803</v>
       </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
@@ -1264,18 +1270,18 @@
       <c r="D26" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="19">
         <v>35112</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="19">
         <v>877803</v>
       </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
@@ -1287,18 +1293,18 @@
       <c r="D27" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="19">
         <v>35112</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="19">
         <v>877803</v>
       </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
@@ -1310,47 +1316,47 @@
       <c r="D28" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="19">
         <v>18726</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="19">
         <v>877803</v>
       </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="22" t="s">
+      <c r="E29" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="24">
+      <c r="F29" s="26">
         <v>18726</v>
       </c>
-      <c r="G29" s="24">
+      <c r="G29" s="26">
         <v>877803</v>
       </c>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="26"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="28"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="32"/>
+      <c r="C34" s="34"/>
       <c r="H34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1358,10 +1364,10 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="32"/>
+      <c r="C35" s="34"/>
       <c r="H35" s="1" t="s">
         <v>30</v>
       </c>
